--- a/0630/B10026 Solution.xlsx
+++ b/0630/B10026 Solution.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kimyewon/Desktop/AlgorithmStudy/0630/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DB4D5C8-9CBA-2744-ADE8-E4574DEFE55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58D1285-9F85-794B-AB1E-C292088E339A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{DC08041D-B757-424E-9401-E506015112E9}"/>
+    <workbookView xWindow="28800" yWindow="1540" windowWidth="38400" windowHeight="21600" xr2:uid="{DC08041D-B757-424E-9401-E506015112E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -168,7 +168,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>적록색약인 사람이 봤을 때 (기존 arr 배열에서 G를 R로 변환 - 같은 색으로 인식하기 때문)</t>
+    <t>적록색약인 사람이 봤을 때 (기존 arr 배열에서 G를 R로 변환 - 같은 색으로 인식)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -387,58 +387,58 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -776,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0880907A-A157-2745-A11A-416A31D742B7}">
   <dimension ref="B1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="169" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="E6" sqref="D6:E6"/>
+    <sheetView tabSelected="1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -789,721 +789,713 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
     </row>
     <row r="2" spans="2:15">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
     </row>
     <row r="4" spans="2:15">
-      <c r="B4" s="6"/>
-      <c r="C4" s="11" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="17"/>
     </row>
     <row r="5" spans="2:15">
-      <c r="B5" s="6"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="4" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="4" t="s">
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
     </row>
     <row r="6" spans="2:15">
-      <c r="B6" s="6"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" s="2" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:15">
-      <c r="B7" s="6"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="10" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N7" s="2" t="s">
+      <c r="F7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:15">
-      <c r="B8" s="6"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N8" s="2" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:15">
-      <c r="B9" s="6"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N9" s="2" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="2:15">
-      <c r="B10" s="7"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N10" s="2" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="2:15">
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
     </row>
     <row r="12" spans="2:15" ht="18" customHeight="1">
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
     </row>
     <row r="13" spans="2:15">
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
     </row>
     <row r="14" spans="2:15">
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
     </row>
     <row r="15" spans="2:15">
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
     </row>
     <row r="16" spans="2:15">
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
     </row>
     <row r="21" spans="2:15">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
     </row>
     <row r="22" spans="2:15">
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
     </row>
     <row r="23" spans="2:15">
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
     </row>
     <row r="24" spans="2:15">
-      <c r="B24" s="6"/>
-      <c r="C24" s="11" t="s">
+      <c r="B24" s="9"/>
+      <c r="C24" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="17"/>
     </row>
     <row r="25" spans="2:15">
-      <c r="B25" s="6"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="4" t="s">
+      <c r="B25" s="9"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="4" t="s">
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
     </row>
     <row r="26" spans="2:15">
-      <c r="B26" s="6"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N26" s="2" t="s">
+      <c r="B26" s="9"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N26" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="2:15">
-      <c r="B27" s="6"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N27" s="2" t="s">
+      <c r="B27" s="9"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N27" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="2:15">
-      <c r="B28" s="6"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N28" s="2" t="s">
+      <c r="B28" s="9"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N28" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="2:15">
-      <c r="B29" s="6"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="3"/>
-      <c r="J29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N29" s="2" t="s">
+      <c r="B29" s="9"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="2"/>
+      <c r="J29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N29" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="30" spans="2:15">
-      <c r="B30" s="7"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I30" s="3"/>
-      <c r="J30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N30" s="2" t="s">
+      <c r="B30" s="10"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30" s="2"/>
+      <c r="J30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N30" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="31" spans="2:15">
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
     </row>
     <row r="32" spans="2:15">
-      <c r="D32" s="17" t="s">
+      <c r="D32" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
     </row>
     <row r="33" spans="4:15">
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
     </row>
     <row r="34" spans="4:15">
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
     </row>
     <row r="35" spans="4:15">
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
     </row>
     <row r="36" spans="4:15">
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D31:N31"/>
-    <mergeCell ref="D32:O36"/>
-    <mergeCell ref="B23:B30"/>
-    <mergeCell ref="C23:N23"/>
-    <mergeCell ref="C24:C30"/>
-    <mergeCell ref="D24:N24"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="J25:N25"/>
     <mergeCell ref="D11:N11"/>
     <mergeCell ref="D12:O16"/>
     <mergeCell ref="B1:N1"/>
@@ -1516,6 +1508,14 @@
     <mergeCell ref="B3:B10"/>
     <mergeCell ref="C4:C10"/>
     <mergeCell ref="D4:N4"/>
+    <mergeCell ref="D31:N31"/>
+    <mergeCell ref="D32:O36"/>
+    <mergeCell ref="B23:B30"/>
+    <mergeCell ref="C23:N23"/>
+    <mergeCell ref="C24:C30"/>
+    <mergeCell ref="D24:N24"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="J25:N25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
